--- a/3.xlsx
+++ b/3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="2280" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="按地类" sheetId="4" r:id="rId1"/>
@@ -46,279 +46,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
-    <t>[  1.65080933e+12   6.60323732e+12   8.80431643e+11  -1.32064746e+13]</t>
-  </si>
-  <si>
-    <t>[  5.80278702e+11   2.32111481e+12   3.09481975e+11  -4.64222962e+12]</t>
-  </si>
-  <si>
-    <t>[  3.69035515e+11   1.47614206e+12   1.96818941e+11  -2.95228412e+12]</t>
-  </si>
-  <si>
-    <t>[  9.21221620e+11   3.68488648e+12   4.91318197e+11  -7.36977296e+12]</t>
-  </si>
-  <si>
-    <t>[  1.45285027e+12   5.81140109e+12   7.74853479e+11  -1.16228022e+13]</t>
-  </si>
-  <si>
-    <t>[  3.18389738e+11   1.27355895e+12   1.69807860e+11  -2.54711790e+12]</t>
-  </si>
-  <si>
-    <t>[  5.46430939e+11   2.18572376e+12   2.91429834e+11  -4.37144751e+12]</t>
-  </si>
-  <si>
-    <t>[  9.80465092e+11   3.92186037e+12   5.22914716e+11  -7.84372074e+12]</t>
-  </si>
-  <si>
-    <t>[  1.25259109e+12   5.01036436e+12   6.68048581e+11  -1.00207287e+13]</t>
-  </si>
-  <si>
-    <t>[  3.21437321e+11   1.28574928e+12   1.71433238e+11  -2.57149857e+12]</t>
-  </si>
-  <si>
-    <t>[  5.26490906e+11   2.10596362e+12   2.80795150e+11  -4.21192725e+12]</t>
-  </si>
-  <si>
-    <t>[  3.14803168e+12   1.25921267e+13   1.67895023e+12  -2.51842534e+13]</t>
-  </si>
-  <si>
-    <t>[  3.15938868e+12   1.26375547e+13   1.68500730e+12  -2.52751094e+13]</t>
-  </si>
-  <si>
-    <t>[  4.57103623e+11   1.82841449e+12   2.43788599e+11  -3.65682898e+12]</t>
-  </si>
-  <si>
-    <t>[  6.00215092e+11   2.40086037e+12   3.20114716e+11  -4.80172073e+12]</t>
-  </si>
-  <si>
-    <t>[  6.51118224e+11   2.60447289e+12   3.47263053e+11  -5.20894579e+12]</t>
-  </si>
-  <si>
-    <t>[  7.11553380e+11   2.84621352e+12   3.79495136e+11  -5.69242704e+12]</t>
-  </si>
-  <si>
-    <t>[  1.07582987e+12   4.30331949e+12   5.73775932e+11  -8.60663898e+12]</t>
-  </si>
-  <si>
-    <t>[  1.10568530e+12   4.42274119e+12   5.89698826e+11  -8.84548239e+12]</t>
-  </si>
-  <si>
-    <t>[  3.30368908e+11   1.32147563e+12   1.76196751e+11  -2.64295126e+12]</t>
-  </si>
-  <si>
-    <t>[  2.10277054e+09   8.41108216e+09   1.12147762e+09  -1.68221643e+10]</t>
-  </si>
-  <si>
-    <t>[  2.62771072e+11   1.05108429e+12   1.40144572e+11  -2.10216858e+12]</t>
-  </si>
-  <si>
-    <t>[  4.21503167e+12   1.68601267e+13   2.24801689e+12  -3.37202533e+13]</t>
-  </si>
-  <si>
-    <t>[  1.10531802e+12   4.42127206e+12   5.89502941e+11  -8.84254412e+12]</t>
-  </si>
-  <si>
-    <t>[  8.30353341e+10   3.32141336e+11   4.42855115e+10  -6.64282673e+11]</t>
-  </si>
-  <si>
-    <t>[  6.44808071e+12   2.57923228e+13   3.43897638e+12  -5.15846456e+13]</t>
-  </si>
-  <si>
-    <t>[  2.82006519e+12   1.12802608e+13   1.50403477e+12  -2.25605215e+13]</t>
-  </si>
-  <si>
-    <t>[  1.49212313e+13   5.96849254e+13   7.95799005e+12  -1.19369851e+14]</t>
-  </si>
-  <si>
-    <t>[  6.66062266e+11   2.66424906e+12   3.55233209e+11  -5.32849813e+12]</t>
-  </si>
-  <si>
-    <t>[  2.26620910e+11   9.06483638e+11   1.20864485e+11  -1.81296728e+12]</t>
-  </si>
-  <si>
-    <t>[  6.08234550e+11   2.43293820e+12   3.24391760e+11  -4.86587640e+12]</t>
-  </si>
-  <si>
-    <t>[  6.73027707e+11   2.69211083e+12   3.58948111e+11  -5.38422166e+12]</t>
-  </si>
-  <si>
-    <t>[  5.59967378e+12   2.23986951e+13   2.98649268e+12  -4.47973903e+13]</t>
-  </si>
-  <si>
-    <t>[  2.36959926e+12   9.47839705e+12   1.26378627e+12  -1.89567941e+13]</t>
-  </si>
-  <si>
-    <t>[  1.54186632e+11   6.16746528e+11   8.22328704e+10  -1.23349306e+12]</t>
-  </si>
-  <si>
-    <t>[  6.51357280e+11   2.60542912e+12   3.47390550e+11  -5.21085824e+12]</t>
-  </si>
-  <si>
-    <t>[  1.14354671e+12   4.57418683e+12   6.09891578e+11  -9.14837367e+12]</t>
-  </si>
-  <si>
-    <t>[  5.79463886e+11   2.31785554e+12   3.09047406e+11  -4.63571109e+12]</t>
-  </si>
-  <si>
-    <t>[  7.26499125e+09   2.90599650e+10   3.87466200e+09  -5.81199300e+10]</t>
-  </si>
-  <si>
-    <t>[  3.66553635e+11   1.46621454e+12   1.95495272e+11  -2.93242908e+12]</t>
-  </si>
-  <si>
-    <t>[  1.47923215e+11   5.91692859e+11   7.88923811e+10  -1.18338572e+12]</t>
-  </si>
-  <si>
-    <t>[  7.26669860e+11   2.90667944e+12   3.87557259e+11  -5.81335888e+12]</t>
-  </si>
-  <si>
-    <t>[  4.90275072e+11   1.96110029e+12   2.61480038e+11  -3.92220057e+12]</t>
-  </si>
-  <si>
-    <t>[  3.27280573e+11   1.30912229e+12   1.74549639e+11  -2.61824458e+12]</t>
-  </si>
-  <si>
-    <t>[  9.09273198e+11   3.63709279e+12   4.84945706e+11  -7.27418558e+12]</t>
-  </si>
-  <si>
-    <t>[  5.91306889e+11   2.36522756e+12   3.15363674e+11  -4.73045512e+12]</t>
-  </si>
-  <si>
-    <t>[  5.34854678e+11   2.13941871e+12   2.85255829e+11  -4.27883743e+12]</t>
-  </si>
-  <si>
-    <t>[  3.06674799e+11   1.22669920e+12   1.63559893e+11  -2.45339839e+12]</t>
-  </si>
-  <si>
-    <t>[  3.87291555e+11   1.54916622e+12   2.06555496e+11  -3.09833244e+12]</t>
-  </si>
-  <si>
-    <t>[  8.80697389e+10   3.52278956e+11   4.69705274e+10  -7.04557911e+11]</t>
-  </si>
-  <si>
-    <t>[  1.44146651e+11   5.76586604e+11   7.68782139e+10  -1.15317321e+12]</t>
-  </si>
-  <si>
-    <t>[  6.32128248e+11   2.52851299e+12   3.37135065e+11  -5.05702598e+12]</t>
-  </si>
-  <si>
-    <t>[  1.41593447e+12   5.66373788e+12   7.55165051e+11  -1.13274758e+13]</t>
-  </si>
-  <si>
-    <t>[  3.60963555e+11   1.44385422e+12   1.92513896e+11  -2.88770844e+12]</t>
-  </si>
-  <si>
-    <t>[  6.49617651e+11   2.59847060e+12   3.46462747e+11  -5.19694121e+12]</t>
-  </si>
-  <si>
-    <t>[  7.81575661e+11   3.12630264e+12   4.16840352e+11  -6.25260529e+12]</t>
-  </si>
-  <si>
-    <t>[  5.27328575e+13   2.10931430e+14   2.81241907e+13  -4.21862860e+14]</t>
-  </si>
-  <si>
-    <t>[  3.33343297e+12   1.33337319e+13   1.77783092e+12  -2.66674638e+13]</t>
-  </si>
-  <si>
-    <t>[  4.16390794e+11   1.66556318e+12   2.22075090e+11  -3.33112635e+12]</t>
-  </si>
-  <si>
-    <t>[  4.51700078e+10   1.80680031e+11   2.40906708e+10  -3.61360062e+11]</t>
-  </si>
-  <si>
-    <t>[  1.11467066e+11   4.45868263e+11   5.94491017e+10  -8.91736525e+11]</t>
-  </si>
-  <si>
-    <t>[  1.56411870e+11   6.25647481e+11   8.34196641e+10  -1.25129496e+12]</t>
-  </si>
-  <si>
-    <t>[  1.16664305e+11   4.66657218e+11   6.22209625e+10  -9.33314437e+11]</t>
-  </si>
-  <si>
-    <t>[  2.37773803e+11   9.51095211e+11   1.26812695e+11  -1.90219042e+12]</t>
-  </si>
-  <si>
-    <t>[  1.36980887e+11   5.47923548e+11   7.30564730e+10  -1.09584710e+12]</t>
-  </si>
-  <si>
-    <t>[  1.76108550e+11   7.04434199e+11   9.39245599e+10  -1.40886840e+12]</t>
-  </si>
-  <si>
-    <t>[  1.64478786e+12   6.57915143e+12   8.77220191e+11  -1.31583029e+13]</t>
-  </si>
-  <si>
-    <t>[  2.52569861e+13   1.01027944e+14   1.34703926e+13  -2.02055889e+14]</t>
-  </si>
-  <si>
-    <t>[  1.95997871e+12   7.83991483e+12   1.04532198e+12  -1.56798297e+13]</t>
-  </si>
-  <si>
-    <t>[  1.77773568e+12   7.11094272e+12   9.48125696e+11  -1.42218854e+13]</t>
-  </si>
-  <si>
-    <t>[  4.30278952e+11   1.72111581e+12   2.29482108e+11  -3.44223161e+12]</t>
-  </si>
-  <si>
-    <t>[  4.87060846e+11   1.94824338e+12   2.59765784e+11  -3.89648677e+12]</t>
-  </si>
-  <si>
-    <t>[  4.97178937e+11   1.98871575e+12   2.65162100e+11  -3.97743150e+12]</t>
-  </si>
-  <si>
-    <t>[  7.95938693e+11   3.18375477e+12   4.24500636e+11  -6.36750954e+12]</t>
-  </si>
-  <si>
-    <t>[  6.52164143e+12   2.60865657e+13   3.47820876e+12  -5.21731314e+13]</t>
-  </si>
-  <si>
-    <t>[  5.32120241e+12   2.12848096e+13   2.83797462e+12  -4.25696193e+13]</t>
-  </si>
-  <si>
-    <t>[  7.82872275e+11   3.13148910e+12   4.17531880e+11  -6.26297820e+12]</t>
-  </si>
-  <si>
-    <t>[  7.86586527e+12   3.14634611e+13   4.19512815e+12  -6.29269222e+13]</t>
-  </si>
-  <si>
-    <t>[  6.28905836e+09   2.51562334e+10   3.35416446e+09  -5.03124669e+10]</t>
-  </si>
-  <si>
-    <t>[  1.08323783e+12   4.33295134e+12   5.77726845e+11  -8.66590268e+12]</t>
-  </si>
-  <si>
-    <t>[  5.37469222e+11   2.14987689e+12   2.86650252e+11  -4.29975378e+12]</t>
-  </si>
-  <si>
-    <t>[  8.63020850e+11   3.45208340e+12   4.60277787e+11  -6.90416680e+12]</t>
-  </si>
-  <si>
-    <t>[  1.10174661e+12   4.40698644e+12   5.87598192e+11  -8.81397287e+12]</t>
-  </si>
-  <si>
-    <t>[  9.79788991e+12   3.91915597e+13   5.22554129e+12  -7.83831193e+13]</t>
-  </si>
-  <si>
-    <t>[  2.68956014e+12   1.07582406e+13   1.43443207e+12  -2.15164811e+13]</t>
-  </si>
-  <si>
-    <t>[  3.51284940e+12   1.40513976e+13   1.87351968e+12  -2.81027952e+13]</t>
-  </si>
-  <si>
-    <t>[  3.31135073e+12   1.32454029e+13   1.76605372e+12  -2.64908058e+13]</t>
-  </si>
-  <si>
-    <t>[  1.04039096e+13   4.16156385e+13   5.54875180e+12  -8.32312770e+13]</t>
-  </si>
-  <si>
-    <t>[  3.87221006e+11   1.54888402e+12   2.06517870e+11  -3.09776804e+12]</t>
-  </si>
-  <si>
-    <t>[  1.03978183e+12   4.15912734e+12   5.54550312e+11  -8.31825468e+12]</t>
-  </si>
-  <si>
-    <t>[  2.19275429e+12   8.77101716e+12   1.16946895e+12  -1.75420343e+13]</t>
-  </si>
-  <si>
     <t>[  1.72700026e+14   6.90800102e+14   9.21066803e+13  -1.38160020e+15]</t>
   </si>
   <si>
@@ -815,6 +542,279 @@
   </si>
   <si>
     <t>[  1.81204684e+12   7.24818734e+12   9.66424979e+11  -1.44963747e+13]</t>
+  </si>
+  <si>
+    <t>-1.32064746e+13]</t>
+  </si>
+  <si>
+    <t>-4.64222962e+12]</t>
+  </si>
+  <si>
+    <t>-2.95228412e+12]</t>
+  </si>
+  <si>
+    <t>-7.36977296e+12]</t>
+  </si>
+  <si>
+    <t>-1.16228022e+13]</t>
+  </si>
+  <si>
+    <t>-2.54711790e+12]</t>
+  </si>
+  <si>
+    <t>-4.37144751e+12]</t>
+  </si>
+  <si>
+    <t>-7.84372074e+12]</t>
+  </si>
+  <si>
+    <t>-1.00207287e+13]</t>
+  </si>
+  <si>
+    <t>-2.57149857e+12]</t>
+  </si>
+  <si>
+    <t>-4.21192725e+12]</t>
+  </si>
+  <si>
+    <t>-2.51842534e+13]</t>
+  </si>
+  <si>
+    <t>-2.52751094e+13]</t>
+  </si>
+  <si>
+    <t>-3.65682898e+12]</t>
+  </si>
+  <si>
+    <t>-4.80172073e+12]</t>
+  </si>
+  <si>
+    <t>-5.20894579e+12]</t>
+  </si>
+  <si>
+    <t>-5.69242704e+12]</t>
+  </si>
+  <si>
+    <t>-8.60663898e+12]</t>
+  </si>
+  <si>
+    <t>-8.84548239e+12]</t>
+  </si>
+  <si>
+    <t>-2.64295126e+12]</t>
+  </si>
+  <si>
+    <t>-1.68221643e+10]</t>
+  </si>
+  <si>
+    <t>-2.10216858e+12]</t>
+  </si>
+  <si>
+    <t>-3.37202533e+13]</t>
+  </si>
+  <si>
+    <t>-8.84254412e+12]</t>
+  </si>
+  <si>
+    <t>-6.64282673e+11]</t>
+  </si>
+  <si>
+    <t>-5.15846456e+13]</t>
+  </si>
+  <si>
+    <t>-2.25605215e+13]</t>
+  </si>
+  <si>
+    <t>-1.19369851e+14]</t>
+  </si>
+  <si>
+    <t>-5.32849813e+12]</t>
+  </si>
+  <si>
+    <t>-1.81296728e+12]</t>
+  </si>
+  <si>
+    <t>-4.86587640e+12]</t>
+  </si>
+  <si>
+    <t>-5.38422166e+12]</t>
+  </si>
+  <si>
+    <t>-4.47973903e+13]</t>
+  </si>
+  <si>
+    <t>-1.89567941e+13]</t>
+  </si>
+  <si>
+    <t>-1.23349306e+12]</t>
+  </si>
+  <si>
+    <t>-5.21085824e+12]</t>
+  </si>
+  <si>
+    <t>-9.14837367e+12]</t>
+  </si>
+  <si>
+    <t>-4.63571109e+12]</t>
+  </si>
+  <si>
+    <t>-5.81199300e+10]</t>
+  </si>
+  <si>
+    <t>-2.93242908e+12]</t>
+  </si>
+  <si>
+    <t>-1.18338572e+12]</t>
+  </si>
+  <si>
+    <t>-5.81335888e+12]</t>
+  </si>
+  <si>
+    <t>-3.92220057e+12]</t>
+  </si>
+  <si>
+    <t>-2.61824458e+12]</t>
+  </si>
+  <si>
+    <t>-7.27418558e+12]</t>
+  </si>
+  <si>
+    <t>-4.73045512e+12]</t>
+  </si>
+  <si>
+    <t>-4.27883743e+12]</t>
+  </si>
+  <si>
+    <t>-2.45339839e+12]</t>
+  </si>
+  <si>
+    <t>-3.09833244e+12]</t>
+  </si>
+  <si>
+    <t>-7.04557911e+11]</t>
+  </si>
+  <si>
+    <t>-1.15317321e+12]</t>
+  </si>
+  <si>
+    <t>-5.05702598e+12]</t>
+  </si>
+  <si>
+    <t>-1.13274758e+13]</t>
+  </si>
+  <si>
+    <t>-2.88770844e+12]</t>
+  </si>
+  <si>
+    <t>-5.19694121e+12]</t>
+  </si>
+  <si>
+    <t>-6.25260529e+12]</t>
+  </si>
+  <si>
+    <t>-4.21862860e+14]</t>
+  </si>
+  <si>
+    <t>-2.66674638e+13]</t>
+  </si>
+  <si>
+    <t>-3.33112635e+12]</t>
+  </si>
+  <si>
+    <t>-3.61360062e+11]</t>
+  </si>
+  <si>
+    <t>-8.91736525e+11]</t>
+  </si>
+  <si>
+    <t>-1.25129496e+12]</t>
+  </si>
+  <si>
+    <t>-9.33314437e+11]</t>
+  </si>
+  <si>
+    <t>-1.90219042e+12]</t>
+  </si>
+  <si>
+    <t>-1.09584710e+12]</t>
+  </si>
+  <si>
+    <t>-1.40886840e+12]</t>
+  </si>
+  <si>
+    <t>-1.31583029e+13]</t>
+  </si>
+  <si>
+    <t>-2.02055889e+14]</t>
+  </si>
+  <si>
+    <t>-1.56798297e+13]</t>
+  </si>
+  <si>
+    <t>-1.42218854e+13]</t>
+  </si>
+  <si>
+    <t>-3.44223161e+12]</t>
+  </si>
+  <si>
+    <t>-3.89648677e+12]</t>
+  </si>
+  <si>
+    <t>-3.97743150e+12]</t>
+  </si>
+  <si>
+    <t>-6.36750954e+12]</t>
+  </si>
+  <si>
+    <t>-5.21731314e+13]</t>
+  </si>
+  <si>
+    <t>-4.25696193e+13]</t>
+  </si>
+  <si>
+    <t>-6.26297820e+12]</t>
+  </si>
+  <si>
+    <t>-6.29269222e+13]</t>
+  </si>
+  <si>
+    <t>-5.03124669e+10]</t>
+  </si>
+  <si>
+    <t>-8.66590268e+12]</t>
+  </si>
+  <si>
+    <t>-4.29975378e+12]</t>
+  </si>
+  <si>
+    <t>-6.90416680e+12]</t>
+  </si>
+  <si>
+    <t>-8.81397287e+12]</t>
+  </si>
+  <si>
+    <t>-7.83831193e+13]</t>
+  </si>
+  <si>
+    <t>-2.15164811e+13]</t>
+  </si>
+  <si>
+    <t>-2.81027952e+13]</t>
+  </si>
+  <si>
+    <t>-2.64908058e+13]</t>
+  </si>
+  <si>
+    <t>-8.32312770e+13]</t>
+  </si>
+  <si>
+    <t>-3.09776804e+12]</t>
+  </si>
+  <si>
+    <t>-8.31825468e+12]</t>
+  </si>
+  <si>
+    <t>-1.75420343e+13]</t>
   </si>
 </sst>
 </file>
@@ -1184,16 +1184,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="10" width="36.33203125" style="1" customWidth="1"/>
@@ -1476,786 +1476,1336 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="3">
+        <v>1650809330000</v>
+      </c>
+      <c r="B1" s="3">
+        <v>6603237320000</v>
+      </c>
+      <c r="C1" s="3">
+        <v>880431643000</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="3">
+        <v>580278702000</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2321114810000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>309481975000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="3">
+        <v>369035515000</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1476142060000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>196818941000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="3">
+        <v>921221620000</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3684886480000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>491318197000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="3">
+        <v>1452850270000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5811401090000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>774853479000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="3">
+        <v>318389738000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1273558950000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>169807860000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3">
+        <v>546430939000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2185723760000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>291429834000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="3">
+        <v>980465092000</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3921860370000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>522914716000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3">
+        <v>1252591090000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5010364360000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>668048581000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="3">
+        <v>321437321000</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1285749280000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>171433238000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="3">
+        <v>526490906000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2105963620000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>280795150000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="3">
+        <v>3148031680000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>12592126700000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1678950230000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="3">
+        <v>3159388680000</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12637554700000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1685007300000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="3">
+        <v>457103623000</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1828414490000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>243788599000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="3">
+        <v>600215092000</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2400860370000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>320114716000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="3">
+        <v>651118224000</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2604472890000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>347263053000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="3">
+        <v>711553380000</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2846213520000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>379495136000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="3">
+        <v>1075829870000</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4303319490000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>573775932000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="3">
+        <v>1105685300000</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4422741190000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>589698826000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="3">
+        <v>330368908000</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1321475630000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>176196751000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="3">
+        <v>2102770540</v>
+      </c>
+      <c r="B21" s="3">
+        <v>8411082160</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1121477620</v>
+      </c>
+      <c r="D21" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="3">
+        <v>262771072000</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1051084290000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>140144572000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="3">
+        <v>4215031670000</v>
+      </c>
+      <c r="B23" s="3">
+        <v>16860126700000</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2248016890000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="3">
+        <v>1105318020000</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4421272060000</v>
+      </c>
+      <c r="C24" s="3">
+        <v>589502941000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="3">
+        <v>83035334100</v>
+      </c>
+      <c r="B25" s="3">
+        <v>332141336000</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44285511500</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="3">
+        <v>6448080710000</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25792322800000</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3438976380000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="3">
+        <v>2820065190000</v>
+      </c>
+      <c r="B27" s="3">
+        <v>11280260800000</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1504034770000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="3">
+        <v>14921231300000</v>
+      </c>
+      <c r="B28" s="3">
+        <v>59684925400000</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7957990050000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="3">
+        <v>666062266000</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2664249060000</v>
+      </c>
+      <c r="C29" s="3">
+        <v>355233209000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="3">
+        <v>226620910000</v>
+      </c>
+      <c r="B30" s="3">
+        <v>906483638000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>120864485000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="3">
+        <v>608234550000</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2432938200000</v>
+      </c>
+      <c r="C31" s="3">
+        <v>324391760000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="3">
+        <v>673027707000</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2692110830000</v>
+      </c>
+      <c r="C32" s="3">
+        <v>358948111000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="3">
+        <v>5599673780000</v>
+      </c>
+      <c r="B33" s="3">
+        <v>22398695100000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2986492680000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="3">
+        <v>2369599260000</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9478397050000</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1263786270000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="3">
+        <v>154186632000</v>
+      </c>
+      <c r="B35" s="3">
+        <v>616746528000</v>
+      </c>
+      <c r="C35" s="3">
+        <v>82232870400</v>
+      </c>
+      <c r="D35" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="3">
+        <v>651357280000</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2605429120000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>347390550000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="3">
+        <v>1143546710000</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4574186830000</v>
+      </c>
+      <c r="C37" s="3">
+        <v>609891578000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="3">
+        <v>579463886000</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2317855540000</v>
+      </c>
+      <c r="C38" s="3">
+        <v>309047406000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="3">
+        <v>7264991250</v>
+      </c>
+      <c r="B39" s="3">
+        <v>29059965000</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3874662000</v>
+      </c>
+      <c r="D39" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="3">
+        <v>366553635000</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1466214540000</v>
+      </c>
+      <c r="C40" s="3">
+        <v>195495272000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="3">
+        <v>147923215000</v>
+      </c>
+      <c r="B41" s="3">
+        <v>591692859000</v>
+      </c>
+      <c r="C41" s="3">
+        <v>78892381100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="3">
+        <v>726669860000</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2906679440000</v>
+      </c>
+      <c r="C42" s="3">
+        <v>387557259000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="3">
+        <v>490275072000</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1961100290000</v>
+      </c>
+      <c r="C43" s="3">
+        <v>261480038000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="3">
+        <v>327280573000</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1309122290000</v>
+      </c>
+      <c r="C44" s="3">
+        <v>174549639000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="3">
+        <v>909273198000</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3637092790000</v>
+      </c>
+      <c r="C45" s="3">
+        <v>484945706000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="3">
+        <v>591306889000</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2365227560000</v>
+      </c>
+      <c r="C46" s="3">
+        <v>315363674000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="3">
+        <v>534854678000</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2139418710000</v>
+      </c>
+      <c r="C47" s="3">
+        <v>285255829000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="3">
+        <v>306674799000</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1226699200000</v>
+      </c>
+      <c r="C48" s="3">
+        <v>163559893000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="3">
+        <v>387291555000</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1549166220000</v>
+      </c>
+      <c r="C49" s="3">
+        <v>206555496000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="3">
+        <v>88069738900</v>
+      </c>
+      <c r="B50" s="3">
+        <v>352278956000</v>
+      </c>
+      <c r="C50" s="3">
+        <v>46970527400</v>
+      </c>
+      <c r="D50" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="3">
+        <v>144146651000</v>
+      </c>
+      <c r="B51" s="3">
+        <v>576586604000</v>
+      </c>
+      <c r="C51" s="3">
+        <v>76878213900</v>
+      </c>
+      <c r="D51" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="3">
+        <v>632128248000</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2528512990000</v>
+      </c>
+      <c r="C52" s="3">
+        <v>337135065000</v>
+      </c>
+      <c r="D52" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="3">
+        <v>1415934470000</v>
+      </c>
+      <c r="B53" s="3">
+        <v>5663737880000</v>
+      </c>
+      <c r="C53" s="3">
+        <v>755165051000</v>
+      </c>
+      <c r="D53" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="3">
+        <v>360963555000</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1443854220000</v>
+      </c>
+      <c r="C54" s="3">
+        <v>192513896000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="3">
+        <v>649617651000</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2598470600000</v>
+      </c>
+      <c r="C55" s="3">
+        <v>346462747000</v>
+      </c>
+      <c r="D55" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="3">
+        <v>781575661000</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3126302640000</v>
+      </c>
+      <c r="C56" s="3">
+        <v>416840352000</v>
+      </c>
+      <c r="D56" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="3">
+        <v>52732857500000</v>
+      </c>
+      <c r="B57" s="3">
+        <v>210931430000000</v>
+      </c>
+      <c r="C57" s="3">
+        <v>28124190700000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="3">
+        <v>3333432970000</v>
+      </c>
+      <c r="B58" s="3">
+        <v>13333731900000</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1777830920000</v>
+      </c>
+      <c r="D58" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="3">
+        <v>416390794000</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1665563180000</v>
+      </c>
+      <c r="C59" s="3">
+        <v>222075090000</v>
+      </c>
+      <c r="D59" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="3">
+        <v>45170007800</v>
+      </c>
+      <c r="B60" s="3">
+        <v>180680031000</v>
+      </c>
+      <c r="C60" s="3">
+        <v>24090670800</v>
+      </c>
+      <c r="D60" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="3">
+        <v>111467066000</v>
+      </c>
+      <c r="B61" s="3">
+        <v>445868263000</v>
+      </c>
+      <c r="C61" s="3">
+        <v>59449101700</v>
+      </c>
+      <c r="D61" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="3">
+        <v>156411870000</v>
+      </c>
+      <c r="B62" s="3">
+        <v>625647481000</v>
+      </c>
+      <c r="C62" s="3">
+        <v>83419664100</v>
+      </c>
+      <c r="D62" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="3">
+        <v>116664305000</v>
+      </c>
+      <c r="B63" s="3">
+        <v>466657218000</v>
+      </c>
+      <c r="C63" s="3">
+        <v>62220962500</v>
+      </c>
+      <c r="D63" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="3">
+        <v>237773803000</v>
+      </c>
+      <c r="B64" s="3">
+        <v>951095211000</v>
+      </c>
+      <c r="C64" s="3">
+        <v>126812695000</v>
+      </c>
+      <c r="D64" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="3">
+        <v>136980887000</v>
+      </c>
+      <c r="B65" s="3">
+        <v>547923548000</v>
+      </c>
+      <c r="C65" s="3">
+        <v>73056473000</v>
+      </c>
+      <c r="D65" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="3">
+        <v>176108550000</v>
+      </c>
+      <c r="B66" s="3">
+        <v>704434199000</v>
+      </c>
+      <c r="C66" s="3">
+        <v>93924559900</v>
+      </c>
+      <c r="D66" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="3">
+        <v>1644787860000</v>
+      </c>
+      <c r="B67" s="3">
+        <v>6579151430000</v>
+      </c>
+      <c r="C67" s="3">
+        <v>877220191000</v>
+      </c>
+      <c r="D67" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="3">
+        <v>25256986100000</v>
+      </c>
+      <c r="B68" s="3">
+        <v>101027944000000</v>
+      </c>
+      <c r="C68" s="3">
+        <v>13470392600000</v>
+      </c>
+      <c r="D68" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="3">
+        <v>1959978710000</v>
+      </c>
+      <c r="B69" s="3">
+        <v>7839914830000</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1045321980000</v>
+      </c>
+      <c r="D69" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="3">
+        <v>1777735680000</v>
+      </c>
+      <c r="B70" s="3">
+        <v>7110942720000</v>
+      </c>
+      <c r="C70" s="3">
+        <v>948125696000</v>
+      </c>
+      <c r="D70" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="3">
+        <v>430278952000</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1721115810000</v>
+      </c>
+      <c r="C71" s="3">
+        <v>229482108000</v>
+      </c>
+      <c r="D71" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="3">
+        <v>487060846000</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1948243380000</v>
+      </c>
+      <c r="C72" s="3">
+        <v>259765784000</v>
+      </c>
+      <c r="D72" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="3">
+        <v>497178937000</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1988715750000</v>
+      </c>
+      <c r="C73" s="3">
+        <v>265162100000</v>
+      </c>
+      <c r="D73" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="3">
+        <v>795938693000</v>
+      </c>
+      <c r="B74" s="3">
+        <v>3183754770000</v>
+      </c>
+      <c r="C74" s="3">
+        <v>424500636000</v>
+      </c>
+      <c r="D74" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="A75" s="3">
+        <v>6521641430000</v>
+      </c>
+      <c r="B75" s="3">
+        <v>26086565700000</v>
+      </c>
+      <c r="C75" s="3">
+        <v>3478208760000</v>
+      </c>
+      <c r="D75" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="A76" s="3">
+        <v>5321202410000</v>
+      </c>
+      <c r="B76" s="3">
+        <v>21284809600000</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2837974620000</v>
+      </c>
+      <c r="D76" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="A77" s="3">
+        <v>782872275000</v>
+      </c>
+      <c r="B77" s="3">
+        <v>3131489100000</v>
+      </c>
+      <c r="C77" s="3">
+        <v>417531880000</v>
+      </c>
+      <c r="D77" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="A78" s="3">
+        <v>7865865270000</v>
+      </c>
+      <c r="B78" s="3">
+        <v>31463461100000</v>
+      </c>
+      <c r="C78" s="3">
+        <v>4195128150000</v>
+      </c>
+      <c r="D78" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="3">
+        <v>6289058360</v>
+      </c>
+      <c r="B79" s="3">
+        <v>25156233400</v>
+      </c>
+      <c r="C79" s="3">
+        <v>3354164460</v>
+      </c>
+      <c r="D79" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="A80" s="3">
+        <v>1083237830000</v>
+      </c>
+      <c r="B80" s="3">
+        <v>4332951340000</v>
+      </c>
+      <c r="C80" s="3">
+        <v>577726845000</v>
+      </c>
+      <c r="D80" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="A81" s="3">
+        <v>537469222000</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2149876890000</v>
+      </c>
+      <c r="C81" s="3">
+        <v>286650252000</v>
+      </c>
+      <c r="D81" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="A82" s="3">
+        <v>863020850000</v>
+      </c>
+      <c r="B82" s="3">
+        <v>3452083400000</v>
+      </c>
+      <c r="C82" s="3">
+        <v>460277787000</v>
+      </c>
+      <c r="D82" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="A83" s="3">
+        <v>1101746610000</v>
+      </c>
+      <c r="B83" s="3">
+        <v>4406986440000</v>
+      </c>
+      <c r="C83" s="3">
+        <v>587598192000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="A84" s="3">
+        <v>9797889910000</v>
+      </c>
+      <c r="B84" s="3">
+        <v>39191559700000</v>
+      </c>
+      <c r="C84" s="3">
+        <v>5225541290000</v>
+      </c>
+      <c r="D84" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="A85" s="3">
+        <v>2689560140000</v>
+      </c>
+      <c r="B85" s="3">
+        <v>10758240600000</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1434432070000</v>
+      </c>
+      <c r="D85" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="A86" s="3">
+        <v>3512849400000</v>
+      </c>
+      <c r="B86" s="3">
+        <v>14051397600000</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1873519680000</v>
+      </c>
+      <c r="D86" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="A87" s="3">
+        <v>3311350730000</v>
+      </c>
+      <c r="B87" s="3">
+        <v>13245402900000</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1766053720000</v>
+      </c>
+      <c r="D87" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="A88" s="3">
+        <v>10403909600000</v>
+      </c>
+      <c r="B88" s="3">
+        <v>41615638500000</v>
+      </c>
+      <c r="C88" s="3">
+        <v>5548751800000</v>
+      </c>
+      <c r="D88" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="A89" s="3">
+        <v>387221006000</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1548884020000</v>
+      </c>
+      <c r="C89" s="3">
+        <v>206517870000</v>
+      </c>
+      <c r="D89" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="A90" s="3">
+        <v>1039781830000</v>
+      </c>
+      <c r="B90" s="3">
+        <v>4159127340000</v>
+      </c>
+      <c r="C90" s="3">
+        <v>554550312000</v>
+      </c>
+      <c r="D90" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
+      <c r="A91" s="3">
+        <v>2192754290000</v>
+      </c>
+      <c r="B91" s="3">
+        <v>8771017160000</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1169468950000</v>
+      </c>
+      <c r="D91" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2276,7 +2826,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2284,7 +2834,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2292,7 +2842,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2300,7 +2850,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2308,7 +2858,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2316,7 +2866,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2324,7 +2874,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2332,7 +2882,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2340,7 +2890,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2348,7 +2898,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2356,7 +2906,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2364,7 +2914,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2372,7 +2922,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2380,7 +2930,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2388,7 +2938,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2396,7 +2946,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2404,7 +2954,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2412,7 +2962,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2420,7 +2970,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2428,7 +2978,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2436,7 +2986,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2444,7 +2994,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2452,7 +3002,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2460,7 +3010,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2468,7 +3018,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2476,7 +3026,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2484,7 +3034,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2492,7 +3042,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2500,7 +3050,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2508,7 +3058,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2516,7 +3066,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2524,7 +3074,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2532,7 +3082,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2540,7 +3090,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2548,7 +3098,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2556,7 +3106,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2564,7 +3114,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2572,7 +3122,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2580,7 +3130,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2588,7 +3138,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2596,7 +3146,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2604,7 +3154,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2612,7 +3162,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2620,7 +3170,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2628,7 +3178,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2636,7 +3186,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2644,7 +3194,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2652,7 +3202,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2660,7 +3210,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2668,7 +3218,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2676,7 +3226,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2684,7 +3234,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2692,7 +3242,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2700,7 +3250,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2708,7 +3258,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2716,7 +3266,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2724,7 +3274,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2732,7 +3282,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2740,7 +3290,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2748,7 +3298,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2756,7 +3306,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2764,7 +3314,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2772,7 +3322,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2780,7 +3330,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2788,7 +3338,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2796,7 +3346,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2804,7 +3354,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2812,7 +3362,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2820,7 +3370,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2828,7 +3378,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2836,7 +3386,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2844,7 +3394,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2852,7 +3402,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2860,7 +3410,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2868,7 +3418,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2876,7 +3426,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2884,7 +3434,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2892,7 +3442,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2900,7 +3450,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2908,7 +3458,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2916,7 +3466,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2924,7 +3474,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2932,7 +3482,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2940,7 +3490,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2948,7 +3498,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2956,7 +3506,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2964,7 +3514,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2972,7 +3522,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2980,7 +3530,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2988,7 +3538,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2996,7 +3546,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3004,7 +3554,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3012,7 +3562,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3020,7 +3570,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3028,7 +3578,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3036,7 +3586,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3044,7 +3594,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3052,7 +3602,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3060,7 +3610,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3122,7 +3672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -3130,7 +3680,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3138,7 +3688,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3146,7 +3696,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3154,7 +3704,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3162,7 +3712,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3170,7 +3720,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3178,7 +3728,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3186,7 +3736,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3194,7 +3744,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3202,7 +3752,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3210,7 +3760,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3218,7 +3768,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3226,7 +3776,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3234,7 +3784,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3242,7 +3792,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3250,7 +3800,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3258,7 +3808,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3266,7 +3816,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3274,7 +3824,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3282,7 +3832,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3290,7 +3840,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3298,7 +3848,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3306,7 +3856,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3314,7 +3864,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3322,7 +3872,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3330,7 +3880,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3338,7 +3888,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3346,7 +3896,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3354,7 +3904,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3362,7 +3912,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3370,7 +3920,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3378,7 +3928,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3386,7 +3936,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3394,7 +3944,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3402,7 +3952,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3410,7 +3960,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3418,7 +3968,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3426,7 +3976,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3434,7 +3984,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3442,7 +3992,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3450,7 +4000,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3458,7 +4008,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3466,7 +4016,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3474,7 +4024,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3482,7 +4032,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3490,7 +4040,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3498,7 +4048,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3506,7 +4056,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3514,7 +4064,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3522,7 +4072,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3530,7 +4080,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3538,7 +4088,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3546,7 +4096,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3554,7 +4104,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3562,7 +4112,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3570,7 +4120,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3578,7 +4128,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3586,7 +4136,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3594,7 +4144,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3602,7 +4152,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3610,7 +4160,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3618,7 +4168,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3626,7 +4176,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3634,7 +4184,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -3642,7 +4192,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3650,7 +4200,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3658,7 +4208,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
